--- a/prototype.xlsx
+++ b/prototype.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>20-17</t>
+  </si>
+  <si>
+    <t>20-20</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G7"/>
+  <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -416,6 +422,28 @@
     <row r="7" spans="2:7">
       <c r="B7">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="D13" t="str">
+        <f>D12</f>
+        <v>20-20</v>
       </c>
     </row>
   </sheetData>
